--- a/March2024_8AM_SeleniumBatch/src/test/java/excelDataDriven/data.xlsx
+++ b/March2024_8AM_SeleniumBatch/src/test/java/excelDataDriven/data.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15570" windowHeight="6540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="people" sheetId="2" r:id="rId2"/>
+    <sheet name="Testcase" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:N20"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>UserName</t>
   </si>
@@ -80,6 +82,102 @@
   </si>
   <si>
     <t>vihan</t>
+  </si>
+  <si>
+    <t>Testcase Name</t>
+  </si>
+  <si>
+    <t>Passord</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>Pass1</t>
+  </si>
+  <si>
+    <t>Pass2</t>
+  </si>
+  <si>
+    <t>Pass3</t>
+  </si>
+  <si>
+    <t>Pass4</t>
+  </si>
+  <si>
+    <t>Pass5</t>
+  </si>
+  <si>
+    <t>Pass6</t>
+  </si>
+  <si>
+    <t>Pass7</t>
+  </si>
+  <si>
+    <t>Pass8</t>
+  </si>
+  <si>
+    <t>Pass9</t>
+  </si>
+  <si>
+    <t>Pass10</t>
   </si>
 </sst>
 </file>
@@ -309,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -331,6 +429,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,4 +884,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>